--- a/public/data/profit/profit_table_ghana.xlsx
+++ b/public/data/profit/profit_table_ghana.xlsx
@@ -1971,13 +1971,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>-30.88</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>-34.04</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1992,7 +1992,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>-211.19</v>
+        <v>-126.84</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>-142.65</v>
+        <v>-45.88</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>-82.54</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>-137.21</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -2152,7 +2152,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>-157.97</v>
+        <v>-61.72</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -2211,13 +2211,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>-22.35</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>-22.87</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -2232,7 +2232,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>-186.53</v>
+        <v>-86.22</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -2312,7 +2312,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>-141.83</v>
+        <v>-50.19</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -2392,7 +2392,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>-185.12</v>
+        <v>-77.05</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -2451,16 +2451,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>-35.28</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>-35.82</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>-92.96</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -2472,7 +2472,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>-151.91</v>
+        <v>-89.69</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -2531,13 +2531,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>-38.94</v>
+        <v>115.64</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>-96.85</v>
+        <v>-55.66</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>-183.41</v>
+        <v>-87.77</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -2632,7 +2632,7 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>-12.1</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>-59.67</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -2792,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>-219.61</v>
+        <v>-141.04</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -2872,7 +2872,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>-10.32</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -2931,13 +2931,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-22.35</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-22.87</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>-213.26</v>
+        <v>-83.25</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -3032,7 +3032,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>-17.82</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -3112,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>-61.7</v>
+        <v>-94.02</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>-188.1</v>
+        <v>-76.03</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -3251,13 +3251,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>-47.38</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>-60.25</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -3272,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>-185.88</v>
+        <v>-136.25</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -3331,13 +3331,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>-23.06</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>-23.56</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -3352,7 +3352,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>-216.87</v>
+        <v>-129.97</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -3411,13 +3411,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-55.55</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>-83.55</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>-184.95</v>
+        <v>-103.34</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>-189.1</v>
+        <v>-111.11</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -3491,13 +3491,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>-35.35</v>
+        <v>115.64</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>-97.4</v>
+        <v>-55.66</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -3512,7 +3512,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>-157.65</v>
+        <v>-69.75</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -3571,16 +3571,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>-37.92</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>-43.75</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>-132.1</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -3592,7 +3592,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>-250.47</v>
+        <v>-168.68</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -3604,7 +3604,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>-149.81</v>
+        <v>-73.37</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -3651,16 +3651,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>-56.44</v>
+        <v>0.25</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>-68.05</v>
+        <v>-65.15</v>
       </c>
       <c r="J23" t="n">
-        <v>-127.97</v>
+        <v>-89.22</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>-254.49</v>
+        <v>-155.17</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -3684,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>-160.2</v>
+        <v>-170.38</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -3731,13 +3731,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>-141.24</v>
+        <v>18.66</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>-172.32</v>
+        <v>-77.83</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -3752,7 +3752,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>-380.4</v>
+        <v>-281.41</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -3811,16 +3811,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>-93.8</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>-105.74</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>-173.58</v>
+        <v>-79.63</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -3832,7 +3832,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>-291.76</v>
+        <v>-188.74</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -3844,7 +3844,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>-181.81</v>
+        <v>-90.14</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -3891,16 +3891,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>-92.59</v>
+        <v>5.3</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>-105.04</v>
+        <v>-31.22</v>
       </c>
       <c r="J26" t="n">
-        <v>-31.23</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>-342.99</v>
+        <v>-245.84</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -3971,16 +3971,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>-81.1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>-92.73</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>-63.97</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -3992,7 +3992,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>-194.56</v>
+        <v>-149.82</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -4004,7 +4004,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>-91.13</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -4051,28 +4051,28 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>-26.77</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>-28.05</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>-92.76</v>
+        <v>-60.07</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>-51.9</v>
+        <v>24.7</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>-132.59</v>
+        <v>-143.72</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -4131,28 +4131,28 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>-64.17</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>-76.29</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>-107.3</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>-10.6</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>-111.02</v>
+        <v>-113.8</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -4211,16 +4211,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>-58.67</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>-72.56</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>-151.28</v>
+        <v>-111.47</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -4232,7 +4232,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>-274.66</v>
+        <v>-195.03</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -4291,16 +4291,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>-39.2</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>-42.1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>-64.4</v>
+        <v>-76.44</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -4312,7 +4312,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>-214.08</v>
+        <v>-114.01</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -4371,16 +4371,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>-8.03</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>-53.87</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -4392,7 +4392,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>-231.71</v>
+        <v>-114.24</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -4451,16 +4451,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>-48.65</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>-58.36</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>-104.88</v>
+        <v>-86.32</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -4472,7 +4472,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>-210.96</v>
+        <v>-141.35</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -4546,13 +4546,13 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>84.51</v>
+        <v>135.75</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>-76.2</v>
+        <v>-52.02</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -4620,19 +4620,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>-34.62</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>160.28</v>
+        <v>216.9</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>-123.97</v>
+        <v>-50.05</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -4644,7 +4644,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>-36.17</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -4691,16 +4691,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>-31.17</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>-37.4</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>-61.06</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -4712,7 +4712,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>-119.47</v>
+        <v>-72.96</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -4771,28 +4771,28 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>-27.87</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>-32.3</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>-77.51</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>161.17</v>
+        <v>211.94</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>-189.7</v>
+        <v>-103.54</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -4804,7 +4804,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>-85.67</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -4851,16 +4851,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>-30.99</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>-41.21</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>-89.54</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -4872,7 +4872,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>-202.68</v>
+        <v>-95.56</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -4884,7 +4884,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>-123.84</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -4931,16 +4931,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>-61.23</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>-62.56</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>-86.92</v>
+        <v>-92.85</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -4952,7 +4952,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>-224.2</v>
+        <v>-134.82</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -5011,16 +5011,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>-44.74</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>-49.66</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>-105.14</v>
+        <v>-103.37</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -5032,7 +5032,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>-246.48</v>
+        <v>-147.31</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -5044,7 +5044,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>-117.56</v>
+        <v>-120.66</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -5100,7 +5100,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>-50.24</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -5112,7 +5112,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>-124.16</v>
+        <v>-103.66</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -5124,7 +5124,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>-28.43</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -5171,16 +5171,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>-45.94</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>-94.68</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>-118.57</v>
+        <v>-117.71</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -5192,7 +5192,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>-272.06</v>
+        <v>-169.48</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -5251,28 +5251,28 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>-47.77</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>-74.79</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>-127.59</v>
+        <v>-116.06</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>-21.3</v>
+        <v>70.56</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>-135.9</v>
+        <v>-171.92</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -5284,7 +5284,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>-249.85</v>
+        <v>-147.86</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -5331,16 +5331,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>-55.8</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>-66.43</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>-141.37</v>
+        <v>-96.27</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -5352,7 +5352,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>-274.41</v>
+        <v>-179.67</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -5364,7 +5364,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>-249.85</v>
+        <v>-147.86</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -5432,7 +5432,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>-18.94</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -5512,7 +5512,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>-18.94</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -5592,7 +5592,7 @@
         <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>-67.24</v>
+        <v>0</v>
       </c>
       <c r="O47" t="n">
         <v>0</v>
@@ -5651,16 +5651,16 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>-53.72</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>-64.38</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>-144.4</v>
+        <v>-110.74</v>
       </c>
       <c r="K48" t="n">
         <v>0</v>
@@ -5672,7 +5672,7 @@
         <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>-265.4</v>
+        <v>-169.91</v>
       </c>
       <c r="O48" t="n">
         <v>0</v>
@@ -5684,7 +5684,7 @@
         <v>0</v>
       </c>
       <c r="R48" t="n">
-        <v>-153.49</v>
+        <v>-133.15</v>
       </c>
       <c r="S48" t="n">
         <v>0</v>
@@ -5740,19 +5740,19 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>-70.21</v>
+        <v>0</v>
       </c>
       <c r="K49" t="n">
         <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>158.27</v>
+        <v>217.51</v>
       </c>
       <c r="M49" t="n">
         <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>-216.6</v>
+        <v>-98.07</v>
       </c>
       <c r="O49" t="n">
         <v>0</v>
@@ -5764,7 +5764,7 @@
         <v>0</v>
       </c>
       <c r="R49" t="n">
-        <v>-71.26</v>
+        <v>0</v>
       </c>
       <c r="S49" t="n">
         <v>0</v>
@@ -5820,7 +5820,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>-50.06</v>
+        <v>0</v>
       </c>
       <c r="K50" t="n">
         <v>0</v>
@@ -5832,7 +5832,7 @@
         <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>-113.83</v>
+        <v>-52.42</v>
       </c>
       <c r="O50" t="n">
         <v>0</v>
@@ -5844,7 +5844,7 @@
         <v>0</v>
       </c>
       <c r="R50" t="n">
-        <v>-51.3</v>
+        <v>0</v>
       </c>
       <c r="S50" t="n">
         <v>0</v>
@@ -5891,16 +5891,16 @@
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>-8.03</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>-61.68</v>
+        <v>0</v>
       </c>
       <c r="K51" t="n">
         <v>0</v>
@@ -5912,7 +5912,7 @@
         <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>-152.94</v>
+        <v>-87.84</v>
       </c>
       <c r="O51" t="n">
         <v>0</v>
@@ -5971,16 +5971,16 @@
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>-20.64</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>-21.35</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>-73.48</v>
+        <v>0</v>
       </c>
       <c r="K52" t="n">
         <v>0</v>
@@ -5992,7 +5992,7 @@
         <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>-245.76</v>
+        <v>-129.8</v>
       </c>
       <c r="O52" t="n">
         <v>0</v>
@@ -6060,7 +6060,7 @@
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>-52.63</v>
+        <v>0</v>
       </c>
       <c r="K53" t="n">
         <v>0</v>
@@ -6072,7 +6072,7 @@
         <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>-192.13</v>
+        <v>-83.75</v>
       </c>
       <c r="O53" t="n">
         <v>0</v>
@@ -6131,16 +6131,16 @@
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>-68.45</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>-92.69</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>-70.46</v>
+        <v>-115.28</v>
       </c>
       <c r="K54" t="n">
         <v>0</v>
@@ -6152,7 +6152,7 @@
         <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>-184.69</v>
+        <v>-108.9</v>
       </c>
       <c r="O54" t="n">
         <v>0</v>
@@ -6220,19 +6220,19 @@
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>-22.28</v>
+        <v>0</v>
       </c>
       <c r="K55" t="n">
         <v>0</v>
       </c>
       <c r="L55" t="n">
-        <v>-31.7</v>
+        <v>25.08</v>
       </c>
       <c r="M55" t="n">
         <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>-37.27</v>
+        <v>0</v>
       </c>
       <c r="O55" t="n">
         <v>0</v>
@@ -6291,28 +6291,28 @@
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>-68.45</v>
+        <v>0</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>-92.69</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>-63.86</v>
+        <v>-115.28</v>
       </c>
       <c r="K56" t="n">
         <v>0</v>
       </c>
       <c r="L56" t="n">
-        <v>80.87</v>
+        <v>132.44</v>
       </c>
       <c r="M56" t="n">
         <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>-154.49</v>
+        <v>-128.83</v>
       </c>
       <c r="O56" t="n">
         <v>0</v>
@@ -6392,7 +6392,7 @@
         <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>-21.8</v>
+        <v>0</v>
       </c>
       <c r="O57" t="n">
         <v>0</v>
@@ -6460,19 +6460,19 @@
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>-17.49</v>
+        <v>0</v>
       </c>
       <c r="K58" t="n">
         <v>0</v>
       </c>
       <c r="L58" t="n">
-        <v>59.93</v>
+        <v>119.68</v>
       </c>
       <c r="M58" t="n">
         <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>-86.69</v>
+        <v>-40.65</v>
       </c>
       <c r="O58" t="n">
         <v>0</v>
@@ -6552,7 +6552,7 @@
         <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>-21.8</v>
+        <v>0</v>
       </c>
       <c r="O59" t="n">
         <v>0</v>
@@ -6620,19 +6620,19 @@
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>-28.79</v>
+        <v>0</v>
       </c>
       <c r="K60" t="n">
         <v>0</v>
       </c>
       <c r="L60" t="n">
-        <v>-10.53</v>
+        <v>56.01</v>
       </c>
       <c r="M60" t="n">
         <v>0</v>
       </c>
       <c r="N60" t="n">
-        <v>-57.08</v>
+        <v>-30.64</v>
       </c>
       <c r="O60" t="n">
         <v>0</v>
@@ -6700,7 +6700,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>-66.92</v>
+        <v>0</v>
       </c>
       <c r="K61" t="n">
         <v>0</v>
@@ -6712,7 +6712,7 @@
         <v>0</v>
       </c>
       <c r="N61" t="n">
-        <v>-222.27</v>
+        <v>-111.63</v>
       </c>
       <c r="O61" t="n">
         <v>0</v>
@@ -6780,7 +6780,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>-29.9</v>
+        <v>0</v>
       </c>
       <c r="K62" t="n">
         <v>0</v>
@@ -6792,7 +6792,7 @@
         <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>-215.6</v>
+        <v>-96.49</v>
       </c>
       <c r="O62" t="n">
         <v>0</v>
@@ -6860,19 +6860,19 @@
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>-45.22</v>
+        <v>0</v>
       </c>
       <c r="K63" t="n">
         <v>0</v>
       </c>
       <c r="L63" t="n">
-        <v>48.79</v>
+        <v>102.64</v>
       </c>
       <c r="M63" t="n">
         <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>-98.01</v>
+        <v>-75.94</v>
       </c>
       <c r="O63" t="n">
         <v>0</v>
@@ -6884,7 +6884,7 @@
         <v>0</v>
       </c>
       <c r="R63" t="n">
-        <v>-35.17</v>
+        <v>0</v>
       </c>
       <c r="S63" t="n">
         <v>0</v>
@@ -6931,28 +6931,28 @@
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>-69.52</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>-70.84</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>-79.56</v>
+        <v>0</v>
       </c>
       <c r="K64" t="n">
         <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>-14.84</v>
+        <v>53.9</v>
       </c>
       <c r="M64" t="n">
         <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>-72.64</v>
+        <v>-101.93</v>
       </c>
       <c r="O64" t="n">
         <v>0</v>
@@ -7032,7 +7032,7 @@
         <v>0</v>
       </c>
       <c r="N65" t="n">
-        <v>-18.94</v>
+        <v>0</v>
       </c>
       <c r="O65" t="n">
         <v>0</v>
@@ -7180,19 +7180,19 @@
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>-23.28</v>
+        <v>0</v>
       </c>
       <c r="K67" t="n">
         <v>0</v>
       </c>
       <c r="L67" t="n">
-        <v>-50.12</v>
+        <v>4.55</v>
       </c>
       <c r="M67" t="n">
         <v>0</v>
       </c>
       <c r="N67" t="n">
-        <v>-37.64</v>
+        <v>0</v>
       </c>
       <c r="O67" t="n">
         <v>0</v>
@@ -7260,19 +7260,19 @@
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>-27.41</v>
+        <v>0</v>
       </c>
       <c r="K68" t="n">
         <v>0</v>
       </c>
       <c r="L68" t="n">
-        <v>-34.65</v>
+        <v>41.66</v>
       </c>
       <c r="M68" t="n">
         <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>-57.59</v>
+        <v>-30.64</v>
       </c>
       <c r="O68" t="n">
         <v>0</v>
@@ -7331,28 +7331,28 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>-68.45</v>
+        <v>0</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>-92.69</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>-76.49</v>
+        <v>-115.28</v>
       </c>
       <c r="K69" t="n">
         <v>0</v>
       </c>
       <c r="L69" t="n">
-        <v>80.87</v>
+        <v>132.44</v>
       </c>
       <c r="M69" t="n">
         <v>0</v>
       </c>
       <c r="N69" t="n">
-        <v>-174.63</v>
+        <v>-175.7</v>
       </c>
       <c r="O69" t="n">
         <v>0</v>
@@ -7420,19 +7420,19 @@
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>-13.99</v>
+        <v>0</v>
       </c>
       <c r="K70" t="n">
         <v>0</v>
       </c>
       <c r="L70" t="n">
-        <v>-73.13</v>
+        <v>-0.29</v>
       </c>
       <c r="M70" t="n">
         <v>0</v>
       </c>
       <c r="N70" t="n">
-        <v>-60.85</v>
+        <v>0</v>
       </c>
       <c r="O70" t="n">
         <v>0</v>
@@ -7500,19 +7500,19 @@
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>-14.83</v>
+        <v>0</v>
       </c>
       <c r="K71" t="n">
         <v>0</v>
       </c>
       <c r="L71" t="n">
-        <v>61.49</v>
+        <v>115.14</v>
       </c>
       <c r="M71" t="n">
         <v>0</v>
       </c>
       <c r="N71" t="n">
-        <v>-69.51</v>
+        <v>-40.65</v>
       </c>
       <c r="O71" t="n">
         <v>0</v>
@@ -7580,7 +7580,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>-34.45</v>
+        <v>0</v>
       </c>
       <c r="K72" t="n">
         <v>0</v>
@@ -7592,7 +7592,7 @@
         <v>0</v>
       </c>
       <c r="N72" t="n">
-        <v>-85.28</v>
+        <v>0</v>
       </c>
       <c r="O72" t="n">
         <v>0</v>
@@ -7604,7 +7604,7 @@
         <v>0</v>
       </c>
       <c r="R72" t="n">
-        <v>-37.36</v>
+        <v>0</v>
       </c>
       <c r="S72" t="n">
         <v>0</v>
@@ -7648,7 +7648,7 @@
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>-12.98</v>
+        <v>0</v>
       </c>
       <c r="G73" t="n">
         <v>0</v>
@@ -7666,19 +7666,19 @@
         <v>0</v>
       </c>
       <c r="L73" t="n">
-        <v>-34.14</v>
+        <v>-14.27</v>
       </c>
       <c r="M73" t="n">
         <v>0</v>
       </c>
       <c r="N73" t="n">
-        <v>-13.33</v>
+        <v>0</v>
       </c>
       <c r="O73" t="n">
         <v>0</v>
       </c>
       <c r="P73" t="n">
-        <v>-1.63</v>
+        <v>0</v>
       </c>
       <c r="Q73" t="n">
         <v>0</v>
@@ -7690,7 +7690,7 @@
         <v>0</v>
       </c>
       <c r="T73" t="n">
-        <v>-13.43</v>
+        <v>0</v>
       </c>
       <c r="U73" t="n">
         <v>0</v>
@@ -7699,7 +7699,7 @@
         <v>0</v>
       </c>
       <c r="W73" t="n">
-        <v>-1.63</v>
+        <v>0</v>
       </c>
       <c r="X73" t="n">
         <v>0</v>
@@ -7746,13 +7746,13 @@
         <v>0</v>
       </c>
       <c r="L74" t="n">
-        <v>-13.25</v>
+        <v>0</v>
       </c>
       <c r="M74" t="n">
         <v>0</v>
       </c>
       <c r="N74" t="n">
-        <v>-74.47</v>
+        <v>-65.62</v>
       </c>
       <c r="O74" t="n">
         <v>0</v>
@@ -7832,7 +7832,7 @@
         <v>0</v>
       </c>
       <c r="N75" t="n">
-        <v>-85.6</v>
+        <v>-61.54</v>
       </c>
       <c r="O75" t="n">
         <v>0</v>
@@ -7888,64 +7888,64 @@
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.66</v>
+        <v>62.51</v>
       </c>
       <c r="G76" t="n">
-        <v>-96.11</v>
+        <v>3.75</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>-114.43</v>
+        <v>-66.54</v>
       </c>
       <c r="J76" t="n">
-        <v>-198.59</v>
+        <v>-114.18</v>
       </c>
       <c r="K76" t="n">
         <v>0</v>
       </c>
       <c r="L76" t="n">
-        <v>17.37</v>
+        <v>82.46</v>
       </c>
       <c r="M76" t="n">
         <v>0</v>
       </c>
       <c r="N76" t="n">
-        <v>-209.07</v>
+        <v>-201.23</v>
       </c>
       <c r="O76" t="n">
         <v>0</v>
       </c>
       <c r="P76" t="n">
-        <v>-193.15</v>
+        <v>-231.31</v>
       </c>
       <c r="Q76" t="n">
         <v>0</v>
       </c>
       <c r="R76" t="n">
-        <v>-216.09</v>
+        <v>-143.59</v>
       </c>
       <c r="S76" t="n">
         <v>0</v>
       </c>
       <c r="T76" t="n">
-        <v>-204.74</v>
+        <v>-260.87</v>
       </c>
       <c r="U76" t="n">
-        <v>-102.59</v>
+        <v>15.22</v>
       </c>
       <c r="V76" t="n">
-        <v>-41.83</v>
+        <v>0</v>
       </c>
       <c r="W76" t="n">
-        <v>-175.27</v>
+        <v>-183.57</v>
       </c>
       <c r="X76" t="n">
         <v>0</v>
       </c>
       <c r="Y76" t="n">
-        <v>-135.37</v>
+        <v>-7.84</v>
       </c>
       <c r="Z76" t="n">
         <v>0</v>
@@ -7971,13 +7971,13 @@
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>-50.43</v>
+        <v>0</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>-64.21</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
         <v>0</v>
@@ -7992,7 +7992,7 @@
         <v>0</v>
       </c>
       <c r="N77" t="n">
-        <v>-243.48</v>
+        <v>-138.21</v>
       </c>
       <c r="O77" t="n">
         <v>0</v>
@@ -8048,64 +8048,64 @@
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>118.6</v>
+        <v>169.44</v>
       </c>
       <c r="G78" t="n">
-        <v>-144.81</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>-172.02</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>-215.17</v>
+        <v>-114.18</v>
       </c>
       <c r="K78" t="n">
         <v>0</v>
       </c>
       <c r="L78" t="n">
-        <v>146.61</v>
+        <v>197.32</v>
       </c>
       <c r="M78" t="n">
         <v>0</v>
       </c>
       <c r="N78" t="n">
-        <v>-353.99</v>
+        <v>-242.57</v>
       </c>
       <c r="O78" t="n">
         <v>0</v>
       </c>
       <c r="P78" t="n">
-        <v>-363.27</v>
+        <v>-243.62</v>
       </c>
       <c r="Q78" t="n">
         <v>0</v>
       </c>
       <c r="R78" t="n">
-        <v>-230.04</v>
+        <v>-143.59</v>
       </c>
       <c r="S78" t="n">
         <v>0</v>
       </c>
       <c r="T78" t="n">
-        <v>-416.43</v>
+        <v>-295.78</v>
       </c>
       <c r="U78" t="n">
-        <v>-151.03</v>
+        <v>-32.47</v>
       </c>
       <c r="V78" t="n">
-        <v>-71.05</v>
+        <v>0</v>
       </c>
       <c r="W78" t="n">
-        <v>-323.56</v>
+        <v>-203.9</v>
       </c>
       <c r="X78" t="n">
         <v>0</v>
       </c>
       <c r="Y78" t="n">
-        <v>-164.47</v>
+        <v>-7.84</v>
       </c>
       <c r="Z78" t="n">
         <v>0</v>
@@ -8128,7 +8128,7 @@
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>-40.54</v>
+        <v>-64.29</v>
       </c>
       <c r="G79" t="n">
         <v>0</v>
@@ -8140,52 +8140,52 @@
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>-23.55</v>
+        <v>0</v>
       </c>
       <c r="K79" t="n">
         <v>0</v>
       </c>
       <c r="L79" t="n">
-        <v>-27.47</v>
+        <v>-52.06</v>
       </c>
       <c r="M79" t="n">
         <v>0</v>
       </c>
       <c r="N79" t="n">
-        <v>-31.1</v>
+        <v>0</v>
       </c>
       <c r="O79" t="n">
         <v>0</v>
       </c>
       <c r="P79" t="n">
-        <v>-42.46</v>
+        <v>0</v>
       </c>
       <c r="Q79" t="n">
         <v>0</v>
       </c>
       <c r="R79" t="n">
-        <v>-23.85</v>
+        <v>0</v>
       </c>
       <c r="S79" t="n">
         <v>0</v>
       </c>
       <c r="T79" t="n">
-        <v>-42.75</v>
+        <v>0</v>
       </c>
       <c r="U79" t="n">
-        <v>-50.28</v>
+        <v>0</v>
       </c>
       <c r="V79" t="n">
         <v>0</v>
       </c>
       <c r="W79" t="n">
-        <v>-41.68</v>
+        <v>0</v>
       </c>
       <c r="X79" t="n">
         <v>0</v>
       </c>
       <c r="Y79" t="n">
-        <v>-22.56</v>
+        <v>0</v>
       </c>
       <c r="Z79" t="n">
         <v>0</v>
@@ -8208,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>-84.01</v>
+        <v>-33.55</v>
       </c>
       <c r="G80" t="n">
         <v>0</v>
@@ -8220,52 +8220,52 @@
         <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>-97.66</v>
+        <v>-33.42</v>
       </c>
       <c r="K80" t="n">
         <v>0</v>
       </c>
       <c r="L80" t="n">
-        <v>-61.67</v>
+        <v>-4.09</v>
       </c>
       <c r="M80" t="n">
         <v>0</v>
       </c>
       <c r="N80" t="n">
-        <v>-90.66</v>
+        <v>-93.06</v>
       </c>
       <c r="O80" t="n">
         <v>0</v>
       </c>
       <c r="P80" t="n">
-        <v>-137.24</v>
+        <v>-164.28</v>
       </c>
       <c r="Q80" t="n">
         <v>0</v>
       </c>
       <c r="R80" t="n">
-        <v>-102.13</v>
+        <v>-45.29</v>
       </c>
       <c r="S80" t="n">
         <v>0</v>
       </c>
       <c r="T80" t="n">
-        <v>-144.94</v>
+        <v>-184.59</v>
       </c>
       <c r="U80" t="n">
-        <v>-111.5</v>
+        <v>-2.65</v>
       </c>
       <c r="V80" t="n">
         <v>0</v>
       </c>
       <c r="W80" t="n">
-        <v>-130.35</v>
+        <v>-146.82</v>
       </c>
       <c r="X80" t="n">
         <v>0</v>
       </c>
       <c r="Y80" t="n">
-        <v>-87.3</v>
+        <v>-5.16</v>
       </c>
       <c r="Z80" t="n">
         <v>0</v>
@@ -8291,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>-72.86</v>
+        <v>5.3</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>-81.55</v>
+        <v>-31.22</v>
       </c>
       <c r="J81" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="N81" t="n">
-        <v>-264.45</v>
+        <v>-227.7</v>
       </c>
       <c r="O81" t="n">
         <v>0</v>
@@ -8371,13 +8371,13 @@
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>-21.1</v>
+        <v>0</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>-21.11</v>
+        <v>0</v>
       </c>
       <c r="J82" t="n">
         <v>0</v>
@@ -8386,13 +8386,13 @@
         <v>0</v>
       </c>
       <c r="L82" t="n">
-        <v>-61.39</v>
+        <v>-2.42</v>
       </c>
       <c r="M82" t="n">
         <v>0</v>
       </c>
       <c r="N82" t="n">
-        <v>-146.15</v>
+        <v>-120.25</v>
       </c>
       <c r="O82" t="n">
         <v>0</v>
@@ -8466,13 +8466,13 @@
         <v>0</v>
       </c>
       <c r="L83" t="n">
-        <v>-28.54</v>
+        <v>-13.02</v>
       </c>
       <c r="M83" t="n">
         <v>0</v>
       </c>
       <c r="N83" t="n">
-        <v>-14.46</v>
+        <v>0</v>
       </c>
       <c r="O83" t="n">
         <v>0</v>
@@ -8490,7 +8490,7 @@
         <v>0</v>
       </c>
       <c r="T83" t="n">
-        <v>-15.99</v>
+        <v>0</v>
       </c>
       <c r="U83" t="n">
         <v>0</v>
@@ -8531,13 +8531,13 @@
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>-19.4</v>
+        <v>0</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>-23.96</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
         <v>0</v>
@@ -8546,13 +8546,13 @@
         <v>0</v>
       </c>
       <c r="L84" t="n">
-        <v>-25.12</v>
+        <v>13.43</v>
       </c>
       <c r="M84" t="n">
         <v>0</v>
       </c>
       <c r="N84" t="n">
-        <v>-46.14</v>
+        <v>-15.68</v>
       </c>
       <c r="O84" t="n">
         <v>0</v>
@@ -8570,7 +8570,7 @@
         <v>0</v>
       </c>
       <c r="T84" t="n">
-        <v>-44.77</v>
+        <v>0</v>
       </c>
       <c r="U84" t="n">
         <v>0</v>
@@ -8585,7 +8585,7 @@
         <v>0</v>
       </c>
       <c r="Y84" t="n">
-        <v>-31.83</v>
+        <v>0</v>
       </c>
       <c r="Z84" t="n">
         <v>0</v>
@@ -8626,13 +8626,13 @@
         <v>0</v>
       </c>
       <c r="L85" t="n">
-        <v>-70.35</v>
+        <v>-55.57</v>
       </c>
       <c r="M85" t="n">
         <v>0</v>
       </c>
       <c r="N85" t="n">
-        <v>-113.25</v>
+        <v>-79.42</v>
       </c>
       <c r="O85" t="n">
         <v>0</v>
@@ -8650,7 +8650,7 @@
         <v>0</v>
       </c>
       <c r="T85" t="n">
-        <v>-100.15</v>
+        <v>-81.42</v>
       </c>
       <c r="U85" t="n">
         <v>0</v>
@@ -8688,16 +8688,16 @@
         <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>-4.84</v>
+        <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>-23.99</v>
+        <v>0</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>-33.33</v>
+        <v>0</v>
       </c>
       <c r="J86" t="n">
         <v>0</v>
@@ -8706,13 +8706,13 @@
         <v>0</v>
       </c>
       <c r="L86" t="n">
-        <v>83.13</v>
+        <v>151.52</v>
       </c>
       <c r="M86" t="n">
         <v>0</v>
       </c>
       <c r="N86" t="n">
-        <v>-62.93</v>
+        <v>-48</v>
       </c>
       <c r="O86" t="n">
         <v>0</v>
@@ -8730,7 +8730,7 @@
         <v>0</v>
       </c>
       <c r="T86" t="n">
-        <v>-80.99</v>
+        <v>-86.84</v>
       </c>
       <c r="U86" t="n">
         <v>0</v>
@@ -8745,7 +8745,7 @@
         <v>0</v>
       </c>
       <c r="Y86" t="n">
-        <v>-40.05</v>
+        <v>-0.93</v>
       </c>
       <c r="Z86" t="n">
         <v>0</v>
@@ -8771,13 +8771,13 @@
         <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>-22.59</v>
+        <v>0</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>-32.4</v>
+        <v>0</v>
       </c>
       <c r="J87" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="L87" t="n">
-        <v>101.81</v>
+        <v>154.67</v>
       </c>
       <c r="M87" t="n">
         <v>0</v>
       </c>
       <c r="N87" t="n">
-        <v>-88.47</v>
+        <v>-42.49</v>
       </c>
       <c r="O87" t="n">
         <v>0</v>
@@ -8810,7 +8810,7 @@
         <v>0</v>
       </c>
       <c r="T87" t="n">
-        <v>-109.94</v>
+        <v>-76.93</v>
       </c>
       <c r="U87" t="n">
         <v>0</v>
@@ -8825,7 +8825,7 @@
         <v>0</v>
       </c>
       <c r="Y87" t="n">
-        <v>-42.88</v>
+        <v>8.52</v>
       </c>
       <c r="Z87" t="n">
         <v>0</v>
@@ -8851,13 +8851,13 @@
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>-23</v>
+        <v>0</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>-27.53</v>
+        <v>0</v>
       </c>
       <c r="J88" t="n">
         <v>0</v>
@@ -8866,13 +8866,13 @@
         <v>0</v>
       </c>
       <c r="L88" t="n">
-        <v>5.82</v>
+        <v>55.58</v>
       </c>
       <c r="M88" t="n">
         <v>0</v>
       </c>
       <c r="N88" t="n">
-        <v>-100.04</v>
+        <v>-55.71</v>
       </c>
       <c r="O88" t="n">
         <v>0</v>
@@ -8890,7 +8890,7 @@
         <v>0</v>
       </c>
       <c r="T88" t="n">
-        <v>-118.81</v>
+        <v>-73.52</v>
       </c>
       <c r="U88" t="n">
         <v>0</v>
@@ -8905,7 +8905,7 @@
         <v>0</v>
       </c>
       <c r="Y88" t="n">
-        <v>-34.58</v>
+        <v>0</v>
       </c>
       <c r="Z88" t="n">
         <v>0</v>
@@ -8946,13 +8946,13 @@
         <v>0</v>
       </c>
       <c r="L89" t="n">
-        <v>-33.33</v>
+        <v>8.32</v>
       </c>
       <c r="M89" t="n">
         <v>0</v>
       </c>
       <c r="N89" t="n">
-        <v>-35.47</v>
+        <v>0</v>
       </c>
       <c r="O89" t="n">
         <v>0</v>
@@ -9091,13 +9091,13 @@
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>-11.18</v>
+        <v>0</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>-37.42</v>
+        <v>0</v>
       </c>
       <c r="J91" t="n">
         <v>0</v>
@@ -9106,13 +9106,13 @@
         <v>0</v>
       </c>
       <c r="L91" t="n">
-        <v>-13.46</v>
+        <v>22.58</v>
       </c>
       <c r="M91" t="n">
         <v>0</v>
       </c>
       <c r="N91" t="n">
-        <v>-51.1</v>
+        <v>-52.14</v>
       </c>
       <c r="O91" t="n">
         <v>0</v>
@@ -9130,7 +9130,7 @@
         <v>0</v>
       </c>
       <c r="T91" t="n">
-        <v>-58.65</v>
+        <v>-82.87</v>
       </c>
       <c r="U91" t="n">
         <v>0</v>
@@ -9145,7 +9145,7 @@
         <v>0</v>
       </c>
       <c r="Y91" t="n">
-        <v>-29.02</v>
+        <v>0</v>
       </c>
       <c r="Z91" t="n">
         <v>0</v>
@@ -9168,7 +9168,7 @@
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>-6.63</v>
+        <v>0</v>
       </c>
       <c r="G92" t="n">
         <v>0</v>
@@ -9186,13 +9186,13 @@
         <v>0</v>
       </c>
       <c r="L92" t="n">
-        <v>-57.13</v>
+        <v>-57.95</v>
       </c>
       <c r="M92" t="n">
         <v>0</v>
       </c>
       <c r="N92" t="n">
-        <v>-60.38</v>
+        <v>-44.45</v>
       </c>
       <c r="O92" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="L93" t="n">
-        <v>-32.74</v>
+        <v>-0.21</v>
       </c>
       <c r="M93" t="n">
         <v>0</v>
@@ -9346,13 +9346,13 @@
         <v>0</v>
       </c>
       <c r="L94" t="n">
-        <v>-31.11</v>
+        <v>12.25</v>
       </c>
       <c r="M94" t="n">
         <v>0</v>
       </c>
       <c r="N94" t="n">
-        <v>-22.52</v>
+        <v>0</v>
       </c>
       <c r="O94" t="n">
         <v>0</v>
@@ -9426,13 +9426,13 @@
         <v>0</v>
       </c>
       <c r="L95" t="n">
-        <v>27.37</v>
+        <v>66.56</v>
       </c>
       <c r="M95" t="n">
         <v>0</v>
       </c>
       <c r="N95" t="n">
-        <v>-59.66</v>
+        <v>-29.58</v>
       </c>
       <c r="O95" t="n">
         <v>0</v>
@@ -9450,7 +9450,7 @@
         <v>0</v>
       </c>
       <c r="T95" t="n">
-        <v>-75.37</v>
+        <v>-90.99</v>
       </c>
       <c r="U95" t="n">
         <v>0</v>
@@ -9465,7 +9465,7 @@
         <v>0</v>
       </c>
       <c r="Y95" t="n">
-        <v>-69.01</v>
+        <v>0</v>
       </c>
       <c r="Z95" t="n">
         <v>0</v>
@@ -9491,13 +9491,13 @@
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>-88.26</v>
+        <v>103.38</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>-185.52</v>
+        <v>-86.52</v>
       </c>
       <c r="J96" t="n">
         <v>0</v>
@@ -9512,7 +9512,7 @@
         <v>0</v>
       </c>
       <c r="N96" t="n">
-        <v>-267.64</v>
+        <v>-175.42</v>
       </c>
       <c r="O96" t="n">
         <v>0</v>
@@ -9571,13 +9571,13 @@
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>-124.83</v>
+        <v>0</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>-166.71</v>
+        <v>0</v>
       </c>
       <c r="J97" t="n">
         <v>0</v>
@@ -9592,7 +9592,7 @@
         <v>0</v>
       </c>
       <c r="N97" t="n">
-        <v>-287.81</v>
+        <v>-155.61</v>
       </c>
       <c r="O97" t="n">
         <v>0</v>
@@ -9651,13 +9651,13 @@
         <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>-43.86</v>
+        <v>0</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>-64.19</v>
+        <v>0</v>
       </c>
       <c r="J98" t="n">
         <v>0</v>
@@ -9672,7 +9672,7 @@
         <v>0</v>
       </c>
       <c r="N98" t="n">
-        <v>-216.13</v>
+        <v>-100.8</v>
       </c>
       <c r="O98" t="n">
         <v>0</v>
@@ -9752,7 +9752,7 @@
         <v>0</v>
       </c>
       <c r="N99" t="n">
-        <v>-93.06</v>
+        <v>-32.71</v>
       </c>
       <c r="O99" t="n">
         <v>0</v>
@@ -9832,7 +9832,7 @@
         <v>0</v>
       </c>
       <c r="N100" t="n">
-        <v>-109.92</v>
+        <v>-46.99</v>
       </c>
       <c r="O100" t="n">
         <v>0</v>
@@ -9891,16 +9891,16 @@
         <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>-23.63</v>
+        <v>0</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>-23.76</v>
+        <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>-75.77</v>
+        <v>0</v>
       </c>
       <c r="K101" t="n">
         <v>0</v>
@@ -9912,7 +9912,7 @@
         <v>0</v>
       </c>
       <c r="N101" t="n">
-        <v>-164.82</v>
+        <v>-93.91</v>
       </c>
       <c r="O101" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="G102" t="n">
-        <v>-50.6</v>
+        <v>0</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>-78.15</v>
+        <v>0</v>
       </c>
       <c r="J102" t="n">
         <v>0</v>
@@ -9992,7 +9992,7 @@
         <v>0</v>
       </c>
       <c r="N102" t="n">
-        <v>-222.13</v>
+        <v>-103.19</v>
       </c>
       <c r="O102" t="n">
         <v>0</v>
@@ -10131,13 +10131,13 @@
         <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>-52.13</v>
+        <v>0</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>-60.79</v>
+        <v>0</v>
       </c>
       <c r="J104" t="n">
         <v>0</v>
@@ -10152,7 +10152,7 @@
         <v>0</v>
       </c>
       <c r="N104" t="n">
-        <v>-268.92</v>
+        <v>-156.71</v>
       </c>
       <c r="O104" t="n">
         <v>0</v>
@@ -10164,7 +10164,7 @@
         <v>0</v>
       </c>
       <c r="R104" t="n">
-        <v>-186.25</v>
+        <v>-121.41</v>
       </c>
       <c r="S104" t="n">
         <v>0</v>
@@ -10211,13 +10211,13 @@
         <v>0</v>
       </c>
       <c r="G105" t="n">
-        <v>-36.5</v>
+        <v>0</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>-41.19</v>
+        <v>0</v>
       </c>
       <c r="J105" t="n">
         <v>0</v>
@@ -10232,7 +10232,7 @@
         <v>0</v>
       </c>
       <c r="N105" t="n">
-        <v>-230.61</v>
+        <v>-96.42</v>
       </c>
       <c r="O105" t="n">
         <v>0</v>
@@ -10291,13 +10291,13 @@
         <v>0</v>
       </c>
       <c r="G106" t="n">
-        <v>-93.69</v>
+        <v>0</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>-108.93</v>
+        <v>0</v>
       </c>
       <c r="J106" t="n">
         <v>0</v>
@@ -10312,7 +10312,7 @@
         <v>0</v>
       </c>
       <c r="N106" t="n">
-        <v>-206.93</v>
+        <v>-89.23</v>
       </c>
       <c r="O106" t="n">
         <v>0</v>
@@ -10392,7 +10392,7 @@
         <v>0</v>
       </c>
       <c r="N107" t="n">
-        <v>-183.59</v>
+        <v>-66.32</v>
       </c>
       <c r="O107" t="n">
         <v>0</v>
@@ -10451,16 +10451,16 @@
         <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>-60.79</v>
+        <v>0</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>-76.34</v>
+        <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>-221.61</v>
+        <v>-122.01</v>
       </c>
       <c r="K108" t="n">
         <v>0</v>
@@ -10472,7 +10472,7 @@
         <v>0</v>
       </c>
       <c r="N108" t="n">
-        <v>-258.03</v>
+        <v>-175.18</v>
       </c>
       <c r="O108" t="n">
         <v>0</v>
@@ -10484,7 +10484,7 @@
         <v>0</v>
       </c>
       <c r="R108" t="n">
-        <v>-326.14</v>
+        <v>-177.16</v>
       </c>
       <c r="S108" t="n">
         <v>0</v>
@@ -10531,13 +10531,13 @@
         <v>0</v>
       </c>
       <c r="G109" t="n">
-        <v>-18.66</v>
+        <v>0</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>-19.09</v>
+        <v>0</v>
       </c>
       <c r="J109" t="n">
         <v>0</v>
@@ -10552,7 +10552,7 @@
         <v>0</v>
       </c>
       <c r="N109" t="n">
-        <v>-218.36</v>
+        <v>-97.18</v>
       </c>
       <c r="O109" t="n">
         <v>0</v>
@@ -10611,13 +10611,13 @@
         <v>0</v>
       </c>
       <c r="G110" t="n">
-        <v>-110.79</v>
+        <v>0</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>-140.19</v>
+        <v>0</v>
       </c>
       <c r="J110" t="n">
         <v>0</v>
@@ -10632,7 +10632,7 @@
         <v>0</v>
       </c>
       <c r="N110" t="n">
-        <v>-223.35</v>
+        <v>-109.48</v>
       </c>
       <c r="O110" t="n">
         <v>0</v>
@@ -10691,13 +10691,13 @@
         <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>-67.58</v>
+        <v>0</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>-69.58</v>
+        <v>0</v>
       </c>
       <c r="J111" t="n">
         <v>0</v>
@@ -10712,7 +10712,7 @@
         <v>0</v>
       </c>
       <c r="N111" t="n">
-        <v>-133.19</v>
+        <v>-164.22</v>
       </c>
       <c r="O111" t="n">
         <v>0</v>
@@ -10724,7 +10724,7 @@
         <v>0</v>
       </c>
       <c r="R111" t="n">
-        <v>-112.38</v>
+        <v>0</v>
       </c>
       <c r="S111" t="n">
         <v>0</v>
@@ -10771,13 +10771,13 @@
         <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>-67.58</v>
+        <v>0</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>-69.58</v>
+        <v>0</v>
       </c>
       <c r="J112" t="n">
         <v>0</v>
@@ -10792,7 +10792,7 @@
         <v>0</v>
       </c>
       <c r="N112" t="n">
-        <v>-187.67</v>
+        <v>-164.22</v>
       </c>
       <c r="O112" t="n">
         <v>0</v>
@@ -10804,7 +10804,7 @@
         <v>0</v>
       </c>
       <c r="R112" t="n">
-        <v>-112.38</v>
+        <v>0</v>
       </c>
       <c r="S112" t="n">
         <v>0</v>
@@ -10851,13 +10851,13 @@
         <v>0</v>
       </c>
       <c r="G113" t="n">
-        <v>-30.58</v>
+        <v>0</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>-37.98</v>
+        <v>0</v>
       </c>
       <c r="J113" t="n">
         <v>0</v>
@@ -10872,7 +10872,7 @@
         <v>0</v>
       </c>
       <c r="N113" t="n">
-        <v>-170.77</v>
+        <v>-71.3</v>
       </c>
       <c r="O113" t="n">
         <v>0</v>
@@ -10946,13 +10946,13 @@
         <v>0</v>
       </c>
       <c r="L114" t="n">
-        <v>-45.95</v>
+        <v>-32.36</v>
       </c>
       <c r="M114" t="n">
         <v>0</v>
       </c>
       <c r="N114" t="n">
-        <v>-43.74</v>
+        <v>0</v>
       </c>
       <c r="O114" t="n">
         <v>0</v>
@@ -11011,13 +11011,13 @@
         <v>0</v>
       </c>
       <c r="G115" t="n">
-        <v>-53.06</v>
+        <v>0</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>-55.73</v>
+        <v>0</v>
       </c>
       <c r="J115" t="n">
         <v>0</v>
@@ -11026,13 +11026,13 @@
         <v>0</v>
       </c>
       <c r="L115" t="n">
-        <v>-46.58</v>
+        <v>3.27</v>
       </c>
       <c r="M115" t="n">
         <v>0</v>
       </c>
       <c r="N115" t="n">
-        <v>-53.2</v>
+        <v>-110.3</v>
       </c>
       <c r="O115" t="n">
         <v>0</v>
@@ -11044,7 +11044,7 @@
         <v>0</v>
       </c>
       <c r="R115" t="n">
-        <v>-136.84</v>
+        <v>0</v>
       </c>
       <c r="S115" t="n">
         <v>0</v>
@@ -11091,28 +11091,28 @@
         <v>0</v>
       </c>
       <c r="G116" t="n">
-        <v>-66.62</v>
+        <v>0</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>-108.4</v>
+        <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>-220.09</v>
+        <v>-111.52</v>
       </c>
       <c r="K116" t="n">
         <v>0</v>
       </c>
       <c r="L116" t="n">
-        <v>-37.78</v>
+        <v>0</v>
       </c>
       <c r="M116" t="n">
         <v>0</v>
       </c>
       <c r="N116" t="n">
-        <v>-150.17</v>
+        <v>-162.48</v>
       </c>
       <c r="O116" t="n">
         <v>0</v>
@@ -11124,7 +11124,7 @@
         <v>0</v>
       </c>
       <c r="R116" t="n">
-        <v>-164.83</v>
+        <v>-156.18</v>
       </c>
       <c r="S116" t="n">
         <v>0</v>
@@ -11171,13 +11171,13 @@
         <v>0</v>
       </c>
       <c r="G117" t="n">
-        <v>-44.07</v>
+        <v>0</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>-52.83</v>
+        <v>0</v>
       </c>
       <c r="J117" t="n">
         <v>0</v>
@@ -11186,13 +11186,13 @@
         <v>0</v>
       </c>
       <c r="L117" t="n">
-        <v>-159.32</v>
+        <v>-172.84</v>
       </c>
       <c r="M117" t="n">
         <v>0</v>
       </c>
       <c r="N117" t="n">
-        <v>-144.52</v>
+        <v>-138.74</v>
       </c>
       <c r="O117" t="n">
         <v>0</v>
@@ -11204,7 +11204,7 @@
         <v>0</v>
       </c>
       <c r="R117" t="n">
-        <v>-92.87</v>
+        <v>-121.48</v>
       </c>
       <c r="S117" t="n">
         <v>0</v>
@@ -11251,16 +11251,16 @@
         <v>0</v>
       </c>
       <c r="G118" t="n">
-        <v>-61.43</v>
+        <v>0</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>-83.03</v>
+        <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>-288.68</v>
+        <v>-143.34</v>
       </c>
       <c r="K118" t="n">
         <v>0</v>
@@ -11272,7 +11272,7 @@
         <v>0</v>
       </c>
       <c r="N118" t="n">
-        <v>-253.57</v>
+        <v>-174.51</v>
       </c>
       <c r="O118" t="n">
         <v>0</v>
@@ -11284,7 +11284,7 @@
         <v>0</v>
       </c>
       <c r="R118" t="n">
-        <v>-189.98</v>
+        <v>-151.56</v>
       </c>
       <c r="S118" t="n">
         <v>0</v>
@@ -11411,13 +11411,13 @@
         <v>0</v>
       </c>
       <c r="G120" t="n">
-        <v>-63.99</v>
+        <v>0</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>-117.4</v>
+        <v>0</v>
       </c>
       <c r="J120" t="n">
         <v>0</v>
@@ -11432,7 +11432,7 @@
         <v>0</v>
       </c>
       <c r="N120" t="n">
-        <v>-236.28</v>
+        <v>-132.56</v>
       </c>
       <c r="O120" t="n">
         <v>0</v>
@@ -11512,7 +11512,7 @@
         <v>0</v>
       </c>
       <c r="N121" t="n">
-        <v>-34.1</v>
+        <v>0</v>
       </c>
       <c r="O121" t="n">
         <v>0</v>
@@ -11592,7 +11592,7 @@
         <v>0</v>
       </c>
       <c r="N122" t="n">
-        <v>-117.79</v>
+        <v>-47.59</v>
       </c>
       <c r="O122" t="n">
         <v>0</v>
@@ -11672,7 +11672,7 @@
         <v>0</v>
       </c>
       <c r="N123" t="n">
-        <v>-67.14</v>
+        <v>-29.45</v>
       </c>
       <c r="O123" t="n">
         <v>0</v>
@@ -11731,13 +11731,13 @@
         <v>0</v>
       </c>
       <c r="G124" t="n">
-        <v>-38.98</v>
+        <v>0</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>-75.03</v>
+        <v>0</v>
       </c>
       <c r="J124" t="n">
         <v>0</v>
@@ -11752,7 +11752,7 @@
         <v>0</v>
       </c>
       <c r="N124" t="n">
-        <v>-194</v>
+        <v>-80.65</v>
       </c>
       <c r="O124" t="n">
         <v>0</v>
@@ -11832,7 +11832,7 @@
         <v>0</v>
       </c>
       <c r="N125" t="n">
-        <v>-97.4</v>
+        <v>0</v>
       </c>
       <c r="O125" t="n">
         <v>0</v>
@@ -11912,7 +11912,7 @@
         <v>0</v>
       </c>
       <c r="N126" t="n">
-        <v>-131.16</v>
+        <v>-30.25</v>
       </c>
       <c r="O126" t="n">
         <v>0</v>
@@ -11971,13 +11971,13 @@
         <v>0</v>
       </c>
       <c r="G127" t="n">
-        <v>-109.65</v>
+        <v>0</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>-136.92</v>
+        <v>0</v>
       </c>
       <c r="J127" t="n">
         <v>0</v>
@@ -11992,7 +11992,7 @@
         <v>0</v>
       </c>
       <c r="N127" t="n">
-        <v>-233.52</v>
+        <v>-116.44</v>
       </c>
       <c r="O127" t="n">
         <v>0</v>
@@ -12051,13 +12051,13 @@
         <v>0</v>
       </c>
       <c r="G128" t="n">
-        <v>-56.8</v>
+        <v>0</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>-124.35</v>
+        <v>0</v>
       </c>
       <c r="J128" t="n">
         <v>0</v>
@@ -12072,7 +12072,7 @@
         <v>0</v>
       </c>
       <c r="N128" t="n">
-        <v>-109.05</v>
+        <v>-133.93</v>
       </c>
       <c r="O128" t="n">
         <v>0</v>
@@ -13192,7 +13192,7 @@
         <v>0</v>
       </c>
       <c r="N142" t="n">
-        <v>-4.04</v>
+        <v>0</v>
       </c>
       <c r="O142" t="n">
         <v>0</v>
@@ -13272,7 +13272,7 @@
         <v>0</v>
       </c>
       <c r="N143" t="n">
-        <v>-26.47</v>
+        <v>0</v>
       </c>
       <c r="O143" t="n">
         <v>0</v>
@@ -13352,7 +13352,7 @@
         <v>0</v>
       </c>
       <c r="N144" t="n">
-        <v>-19.42</v>
+        <v>0</v>
       </c>
       <c r="O144" t="n">
         <v>0</v>
@@ -13432,7 +13432,7 @@
         <v>0</v>
       </c>
       <c r="N145" t="n">
-        <v>-75.7</v>
+        <v>-46.79</v>
       </c>
       <c r="O145" t="n">
         <v>0</v>
@@ -14448,13 +14448,13 @@
         <v>0</v>
       </c>
       <c r="F158" t="n">
-        <v>-8.05</v>
+        <v>0</v>
       </c>
       <c r="G158" t="n">
         <v>0</v>
       </c>
       <c r="H158" t="n">
-        <v>-1.85</v>
+        <v>0</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -14466,7 +14466,7 @@
         <v>0</v>
       </c>
       <c r="L158" t="n">
-        <v>-7.51</v>
+        <v>0</v>
       </c>
       <c r="M158" t="n">
         <v>0</v>
@@ -14608,7 +14608,7 @@
         <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>-9.65</v>
+        <v>0</v>
       </c>
       <c r="G160" t="n">
         <v>0</v>
@@ -14626,7 +14626,7 @@
         <v>0</v>
       </c>
       <c r="L160" t="n">
-        <v>-9.2</v>
+        <v>0</v>
       </c>
       <c r="M160" t="n">
         <v>0</v>
@@ -14768,7 +14768,7 @@
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>-14.28</v>
+        <v>0</v>
       </c>
       <c r="G162" t="n">
         <v>0</v>
@@ -14786,7 +14786,7 @@
         <v>0</v>
       </c>
       <c r="L162" t="n">
-        <v>-13.8</v>
+        <v>0</v>
       </c>
       <c r="M162" t="n">
         <v>0</v>
@@ -15488,7 +15488,7 @@
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>-1.31</v>
+        <v>0</v>
       </c>
       <c r="G171" t="n">
         <v>0</v>
@@ -15506,7 +15506,7 @@
         <v>0</v>
       </c>
       <c r="L171" t="n">
-        <v>-1.31</v>
+        <v>0</v>
       </c>
       <c r="M171" t="n">
         <v>0</v>
@@ -15888,52 +15888,52 @@
         <v>0</v>
       </c>
       <c r="F176" t="n">
-        <v>-47.51</v>
+        <v>-72.72</v>
       </c>
       <c r="G176" t="n">
         <v>0</v>
       </c>
       <c r="H176" t="n">
-        <v>-42.74</v>
+        <v>-42.64</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
       <c r="J176" t="n">
-        <v>-18.64</v>
+        <v>0</v>
       </c>
       <c r="K176" t="n">
         <v>0</v>
       </c>
       <c r="L176" t="n">
-        <v>-29.93</v>
+        <v>-41.08</v>
       </c>
       <c r="M176" t="n">
         <v>0</v>
       </c>
       <c r="N176" t="n">
-        <v>-28.98</v>
+        <v>0</v>
       </c>
       <c r="O176" t="n">
         <v>0</v>
       </c>
       <c r="P176" t="n">
-        <v>-25.66</v>
+        <v>0</v>
       </c>
       <c r="Q176" t="n">
         <v>0</v>
       </c>
       <c r="R176" t="n">
-        <v>-24.4</v>
+        <v>0</v>
       </c>
       <c r="S176" t="n">
-        <v>-30.78</v>
+        <v>0</v>
       </c>
       <c r="T176" t="n">
-        <v>-29.3</v>
+        <v>0</v>
       </c>
       <c r="U176" t="n">
-        <v>-28.98</v>
+        <v>0</v>
       </c>
       <c r="V176" t="n">
         <v>0</v>
@@ -15945,7 +15945,7 @@
         <v>0</v>
       </c>
       <c r="Y176" t="n">
-        <v>-18.53</v>
+        <v>0</v>
       </c>
       <c r="Z176" t="n">
         <v>0</v>
@@ -16128,13 +16128,13 @@
         <v>0</v>
       </c>
       <c r="F179" t="n">
-        <v>-18.84</v>
+        <v>0</v>
       </c>
       <c r="G179" t="n">
         <v>0</v>
       </c>
       <c r="H179" t="n">
-        <v>-27.88</v>
+        <v>0</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -16146,19 +16146,19 @@
         <v>0</v>
       </c>
       <c r="L179" t="n">
-        <v>-9.66</v>
+        <v>0</v>
       </c>
       <c r="M179" t="n">
         <v>0</v>
       </c>
       <c r="N179" t="n">
-        <v>-16.78</v>
+        <v>0</v>
       </c>
       <c r="O179" t="n">
         <v>0</v>
       </c>
       <c r="P179" t="n">
-        <v>-14.96</v>
+        <v>0</v>
       </c>
       <c r="Q179" t="n">
         <v>0</v>
@@ -16167,13 +16167,13 @@
         <v>0</v>
       </c>
       <c r="S179" t="n">
-        <v>-17.83</v>
+        <v>0</v>
       </c>
       <c r="T179" t="n">
-        <v>-16.6</v>
+        <v>0</v>
       </c>
       <c r="U179" t="n">
-        <v>-16.79</v>
+        <v>0</v>
       </c>
       <c r="V179" t="n">
         <v>0</v>
@@ -16208,7 +16208,7 @@
         <v>0</v>
       </c>
       <c r="F180" t="n">
-        <v>-106.91</v>
+        <v>-41.09</v>
       </c>
       <c r="G180" t="n">
         <v>0</v>
@@ -16220,19 +16220,19 @@
         <v>0</v>
       </c>
       <c r="J180" t="n">
-        <v>-66.36</v>
+        <v>0</v>
       </c>
       <c r="K180" t="n">
         <v>0</v>
       </c>
       <c r="L180" t="n">
-        <v>-122.31</v>
+        <v>0</v>
       </c>
       <c r="M180" t="n">
         <v>0</v>
       </c>
       <c r="N180" t="n">
-        <v>-84.22</v>
+        <v>-72.96</v>
       </c>
       <c r="O180" t="n">
         <v>0</v>
@@ -16244,13 +16244,13 @@
         <v>0</v>
       </c>
       <c r="R180" t="n">
-        <v>-66.41</v>
+        <v>0</v>
       </c>
       <c r="S180" t="n">
         <v>0</v>
       </c>
       <c r="T180" t="n">
-        <v>-52.88</v>
+        <v>0</v>
       </c>
       <c r="U180" t="n">
         <v>0</v>
@@ -16288,31 +16288,31 @@
         <v>0</v>
       </c>
       <c r="F181" t="n">
-        <v>-114.89</v>
+        <v>-68.19</v>
       </c>
       <c r="G181" t="n">
-        <v>-46.06</v>
+        <v>0</v>
       </c>
       <c r="H181" t="n">
-        <v>87.56</v>
+        <v>102.92</v>
       </c>
       <c r="I181" t="n">
-        <v>-87.14</v>
+        <v>0</v>
       </c>
       <c r="J181" t="n">
-        <v>-138.46</v>
+        <v>-94.32</v>
       </c>
       <c r="K181" t="n">
         <v>0</v>
       </c>
       <c r="L181" t="n">
-        <v>-79.94</v>
+        <v>-47.67</v>
       </c>
       <c r="M181" t="n">
         <v>0</v>
       </c>
       <c r="N181" t="n">
-        <v>-118.9</v>
+        <v>-53.69</v>
       </c>
       <c r="O181" t="n">
         <v>0</v>
@@ -16324,19 +16324,19 @@
         <v>0</v>
       </c>
       <c r="R181" t="n">
-        <v>-141.8</v>
+        <v>-105.72</v>
       </c>
       <c r="S181" t="n">
         <v>0</v>
       </c>
       <c r="T181" t="n">
-        <v>-136.26</v>
+        <v>-70.65</v>
       </c>
       <c r="U181" t="n">
-        <v>-188.18</v>
+        <v>-93.12</v>
       </c>
       <c r="V181" t="n">
-        <v>-71.39</v>
+        <v>0</v>
       </c>
       <c r="W181" t="n">
         <v>0</v>
@@ -16345,7 +16345,7 @@
         <v>0</v>
       </c>
       <c r="Y181" t="n">
-        <v>-99.41</v>
+        <v>-63.5</v>
       </c>
       <c r="Z181" t="n">
         <v>0</v>
@@ -16368,31 +16368,31 @@
         <v>0</v>
       </c>
       <c r="F182" t="n">
-        <v>-172.39</v>
+        <v>-120.22</v>
       </c>
       <c r="G182" t="n">
-        <v>-25.78</v>
+        <v>0</v>
       </c>
       <c r="H182" t="n">
-        <v>51.05</v>
+        <v>92.26</v>
       </c>
       <c r="I182" t="n">
-        <v>-37.4</v>
+        <v>0</v>
       </c>
       <c r="J182" t="n">
-        <v>-97</v>
+        <v>-46.8</v>
       </c>
       <c r="K182" t="n">
         <v>0</v>
       </c>
       <c r="L182" t="n">
-        <v>-144.64</v>
+        <v>-103.23</v>
       </c>
       <c r="M182" t="n">
         <v>0</v>
       </c>
       <c r="N182" t="n">
-        <v>-141.29</v>
+        <v>-63.25</v>
       </c>
       <c r="O182" t="n">
         <v>0</v>
@@ -16404,19 +16404,19 @@
         <v>0</v>
       </c>
       <c r="R182" t="n">
-        <v>-127.05</v>
+        <v>-57.04</v>
       </c>
       <c r="S182" t="n">
         <v>0</v>
       </c>
       <c r="T182" t="n">
-        <v>-161.86</v>
+        <v>-93.93</v>
       </c>
       <c r="U182" t="n">
-        <v>-198.58</v>
+        <v>-111.69</v>
       </c>
       <c r="V182" t="n">
-        <v>-28.21</v>
+        <v>0</v>
       </c>
       <c r="W182" t="n">
         <v>0</v>
@@ -16425,7 +16425,7 @@
         <v>0</v>
       </c>
       <c r="Y182" t="n">
-        <v>-105.84</v>
+        <v>-27.5</v>
       </c>
       <c r="Z182" t="n">
         <v>0</v>
@@ -16448,7 +16448,7 @@
         <v>0</v>
       </c>
       <c r="F183" t="n">
-        <v>-87.36</v>
+        <v>-58.13</v>
       </c>
       <c r="G183" t="n">
         <v>0</v>
@@ -16460,7 +16460,7 @@
         <v>0</v>
       </c>
       <c r="J183" t="n">
-        <v>-7.93</v>
+        <v>0</v>
       </c>
       <c r="K183" t="n">
         <v>0</v>
@@ -16472,7 +16472,7 @@
         <v>0</v>
       </c>
       <c r="N183" t="n">
-        <v>-43.56</v>
+        <v>0</v>
       </c>
       <c r="O183" t="n">
         <v>0</v>
@@ -16490,7 +16490,7 @@
         <v>0</v>
       </c>
       <c r="T183" t="n">
-        <v>-44.71</v>
+        <v>0</v>
       </c>
       <c r="U183" t="n">
         <v>0</v>
@@ -16528,7 +16528,7 @@
         <v>0</v>
       </c>
       <c r="F184" t="n">
-        <v>-1.53</v>
+        <v>0</v>
       </c>
       <c r="G184" t="n">
         <v>0</v>
@@ -16546,13 +16546,13 @@
         <v>0</v>
       </c>
       <c r="L184" t="n">
-        <v>-12.37</v>
+        <v>0</v>
       </c>
       <c r="M184" t="n">
         <v>0</v>
       </c>
       <c r="N184" t="n">
-        <v>-2.43</v>
+        <v>0</v>
       </c>
       <c r="O184" t="n">
         <v>0</v>
@@ -16570,7 +16570,7 @@
         <v>0</v>
       </c>
       <c r="T184" t="n">
-        <v>-2.5</v>
+        <v>0</v>
       </c>
       <c r="U184" t="n">
         <v>0</v>
@@ -16608,7 +16608,7 @@
         <v>0</v>
       </c>
       <c r="F185" t="n">
-        <v>-11.95</v>
+        <v>0</v>
       </c>
       <c r="G185" t="n">
         <v>0</v>
@@ -16626,13 +16626,13 @@
         <v>0</v>
       </c>
       <c r="L185" t="n">
-        <v>-9.07</v>
+        <v>0</v>
       </c>
       <c r="M185" t="n">
         <v>0</v>
       </c>
       <c r="N185" t="n">
-        <v>-2.43</v>
+        <v>0</v>
       </c>
       <c r="O185" t="n">
         <v>0</v>
@@ -16650,7 +16650,7 @@
         <v>0</v>
       </c>
       <c r="T185" t="n">
-        <v>-2.5</v>
+        <v>0</v>
       </c>
       <c r="U185" t="n">
         <v>0</v>
@@ -16688,13 +16688,13 @@
         <v>0</v>
       </c>
       <c r="F186" t="n">
-        <v>-8.51</v>
+        <v>0</v>
       </c>
       <c r="G186" t="n">
         <v>0</v>
       </c>
       <c r="H186" t="n">
-        <v>-5.2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -16706,7 +16706,7 @@
         <v>0</v>
       </c>
       <c r="L186" t="n">
-        <v>-5.21</v>
+        <v>0</v>
       </c>
       <c r="M186" t="n">
         <v>0</v>
@@ -16768,31 +16768,31 @@
         <v>0</v>
       </c>
       <c r="F187" t="n">
-        <v>-62.73</v>
+        <v>-24.41</v>
       </c>
       <c r="G187" t="n">
-        <v>-61.98</v>
+        <v>2.54</v>
       </c>
       <c r="H187" t="n">
-        <v>91.22</v>
+        <v>103.41</v>
       </c>
       <c r="I187" t="n">
-        <v>-73.46</v>
+        <v>-38.44</v>
       </c>
       <c r="J187" t="n">
-        <v>-89.29</v>
+        <v>-114.99</v>
       </c>
       <c r="K187" t="n">
         <v>0</v>
       </c>
       <c r="L187" t="n">
-        <v>-245.91</v>
+        <v>-212.76</v>
       </c>
       <c r="M187" t="n">
         <v>0</v>
       </c>
       <c r="N187" t="n">
-        <v>-104.18</v>
+        <v>-128.74</v>
       </c>
       <c r="O187" t="n">
         <v>0</v>
@@ -16804,19 +16804,19 @@
         <v>0</v>
       </c>
       <c r="R187" t="n">
-        <v>-135.48</v>
+        <v>-167.35</v>
       </c>
       <c r="S187" t="n">
         <v>0</v>
       </c>
       <c r="T187" t="n">
-        <v>-120.84</v>
+        <v>-169.79</v>
       </c>
       <c r="U187" t="n">
-        <v>-187.39</v>
+        <v>-126.49</v>
       </c>
       <c r="V187" t="n">
-        <v>-69.35</v>
+        <v>-35.01</v>
       </c>
       <c r="W187" t="n">
         <v>0</v>
@@ -16825,7 +16825,7 @@
         <v>0</v>
       </c>
       <c r="Y187" t="n">
-        <v>-100.87</v>
+        <v>-59.89</v>
       </c>
       <c r="Z187" t="n">
         <v>0</v>
@@ -16848,7 +16848,7 @@
         <v>0</v>
       </c>
       <c r="F188" t="n">
-        <v>-4.9</v>
+        <v>0</v>
       </c>
       <c r="G188" t="n">
         <v>0</v>
@@ -16866,19 +16866,19 @@
         <v>0</v>
       </c>
       <c r="L188" t="n">
-        <v>-7.54</v>
+        <v>0</v>
       </c>
       <c r="M188" t="n">
         <v>0</v>
       </c>
       <c r="N188" t="n">
-        <v>-6.92</v>
+        <v>0</v>
       </c>
       <c r="O188" t="n">
         <v>0</v>
       </c>
       <c r="P188" t="n">
-        <v>-6.95</v>
+        <v>0</v>
       </c>
       <c r="Q188" t="n">
         <v>0</v>
@@ -16890,7 +16890,7 @@
         <v>0</v>
       </c>
       <c r="T188" t="n">
-        <v>-6.95</v>
+        <v>0</v>
       </c>
       <c r="U188" t="n">
         <v>0</v>
@@ -17026,13 +17026,13 @@
         <v>0</v>
       </c>
       <c r="L190" t="n">
-        <v>-45.27</v>
+        <v>-8.77</v>
       </c>
       <c r="M190" t="n">
         <v>0</v>
       </c>
       <c r="N190" t="n">
-        <v>-35.3</v>
+        <v>0</v>
       </c>
       <c r="O190" t="n">
         <v>0</v>
@@ -17050,7 +17050,7 @@
         <v>0</v>
       </c>
       <c r="T190" t="n">
-        <v>-36.66</v>
+        <v>0</v>
       </c>
       <c r="U190" t="n">
         <v>0</v>
@@ -17488,7 +17488,7 @@
         <v>0</v>
       </c>
       <c r="F196" t="n">
-        <v>-8.4</v>
+        <v>0</v>
       </c>
       <c r="G196" t="n">
         <v>0</v>
@@ -17506,7 +17506,7 @@
         <v>0</v>
       </c>
       <c r="L196" t="n">
-        <v>-8.23</v>
+        <v>0</v>
       </c>
       <c r="M196" t="n">
         <v>0</v>
@@ -18048,7 +18048,7 @@
         <v>0</v>
       </c>
       <c r="F203" t="n">
-        <v>-11.13</v>
+        <v>0</v>
       </c>
       <c r="G203" t="n">
         <v>0</v>
@@ -18066,7 +18066,7 @@
         <v>0</v>
       </c>
       <c r="L203" t="n">
-        <v>-10.35</v>
+        <v>0</v>
       </c>
       <c r="M203" t="n">
         <v>0</v>
@@ -18448,7 +18448,7 @@
         <v>0</v>
       </c>
       <c r="F208" t="n">
-        <v>-11.12</v>
+        <v>0</v>
       </c>
       <c r="G208" t="n">
         <v>0</v>
@@ -18466,7 +18466,7 @@
         <v>0</v>
       </c>
       <c r="L208" t="n">
-        <v>-10.41</v>
+        <v>0</v>
       </c>
       <c r="M208" t="n">
         <v>0</v>
@@ -19512,7 +19512,7 @@
         <v>0</v>
       </c>
       <c r="N221" t="n">
-        <v>-41.94</v>
+        <v>0</v>
       </c>
       <c r="O221" t="n">
         <v>0</v>
@@ -19568,31 +19568,31 @@
         <v>0</v>
       </c>
       <c r="F222" t="n">
-        <v>-255.96</v>
+        <v>-199.08</v>
       </c>
       <c r="G222" t="n">
         <v>0</v>
       </c>
       <c r="H222" t="n">
-        <v>-93.97</v>
+        <v>-37.08</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
       <c r="J222" t="n">
-        <v>-82.27</v>
+        <v>0</v>
       </c>
       <c r="K222" t="n">
         <v>0</v>
       </c>
       <c r="L222" t="n">
-        <v>-265.25</v>
+        <v>-208.36</v>
       </c>
       <c r="M222" t="n">
         <v>0</v>
       </c>
       <c r="N222" t="n">
-        <v>-119.51</v>
+        <v>-67.5</v>
       </c>
       <c r="O222" t="n">
         <v>0</v>
@@ -19604,16 +19604,16 @@
         <v>0</v>
       </c>
       <c r="R222" t="n">
-        <v>-67.75</v>
+        <v>0</v>
       </c>
       <c r="S222" t="n">
         <v>0</v>
       </c>
       <c r="T222" t="n">
-        <v>-173.53</v>
+        <v>-54.95</v>
       </c>
       <c r="U222" t="n">
-        <v>-172.34</v>
+        <v>-53.77</v>
       </c>
       <c r="V222" t="n">
         <v>0</v>
@@ -19625,7 +19625,7 @@
         <v>0</v>
       </c>
       <c r="Y222" t="n">
-        <v>-42.7</v>
+        <v>0</v>
       </c>
       <c r="Z222" t="n">
         <v>0</v>
@@ -19648,13 +19648,13 @@
         <v>0</v>
       </c>
       <c r="F223" t="n">
-        <v>-30.75</v>
+        <v>0</v>
       </c>
       <c r="G223" t="n">
         <v>0</v>
       </c>
       <c r="H223" t="n">
-        <v>-27.9</v>
+        <v>0</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -19666,7 +19666,7 @@
         <v>0</v>
       </c>
       <c r="L223" t="n">
-        <v>-30.23</v>
+        <v>0</v>
       </c>
       <c r="M223" t="n">
         <v>0</v>
@@ -19728,13 +19728,13 @@
         <v>0</v>
       </c>
       <c r="F224" t="n">
-        <v>-25.78</v>
+        <v>0</v>
       </c>
       <c r="G224" t="n">
         <v>0</v>
       </c>
       <c r="H224" t="n">
-        <v>-25.08</v>
+        <v>0</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -19746,7 +19746,7 @@
         <v>0</v>
       </c>
       <c r="L224" t="n">
-        <v>-25.51</v>
+        <v>0</v>
       </c>
       <c r="M224" t="n">
         <v>0</v>
@@ -19832,7 +19832,7 @@
         <v>0</v>
       </c>
       <c r="N225" t="n">
-        <v>-208.25</v>
+        <v>0</v>
       </c>
       <c r="O225" t="n">
         <v>0</v>
@@ -20048,31 +20048,31 @@
         <v>0</v>
       </c>
       <c r="F228" t="n">
-        <v>-154.49</v>
+        <v>-80.65</v>
       </c>
       <c r="G228" t="n">
         <v>0</v>
       </c>
       <c r="H228" t="n">
-        <v>-145.7</v>
+        <v>-71.87</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
       <c r="J228" t="n">
-        <v>-47.62</v>
+        <v>0</v>
       </c>
       <c r="K228" t="n">
         <v>0</v>
       </c>
       <c r="L228" t="n">
-        <v>-138.55</v>
+        <v>-64.71</v>
       </c>
       <c r="M228" t="n">
         <v>0</v>
       </c>
       <c r="N228" t="n">
-        <v>-98.97</v>
+        <v>-58.34</v>
       </c>
       <c r="O228" t="n">
         <v>0</v>
@@ -20084,16 +20084,16 @@
         <v>0</v>
       </c>
       <c r="R228" t="n">
-        <v>-45.23</v>
+        <v>0</v>
       </c>
       <c r="S228" t="n">
         <v>0</v>
       </c>
       <c r="T228" t="n">
-        <v>-110.6</v>
+        <v>0</v>
       </c>
       <c r="U228" t="n">
-        <v>-119.05</v>
+        <v>0</v>
       </c>
       <c r="V228" t="n">
         <v>0</v>
@@ -20105,7 +20105,7 @@
         <v>0</v>
       </c>
       <c r="Y228" t="n">
-        <v>-40.06</v>
+        <v>0</v>
       </c>
       <c r="Z228" t="n">
         <v>0</v>
@@ -20128,31 +20128,31 @@
         <v>0</v>
       </c>
       <c r="F229" t="n">
-        <v>-250.8</v>
+        <v>-194.91</v>
       </c>
       <c r="G229" t="n">
         <v>0</v>
       </c>
       <c r="H229" t="n">
-        <v>-78.05</v>
+        <v>-22.16</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
       <c r="J229" t="n">
-        <v>-71.22</v>
+        <v>0</v>
       </c>
       <c r="K229" t="n">
         <v>0</v>
       </c>
       <c r="L229" t="n">
-        <v>-260.7</v>
+        <v>-204.81</v>
       </c>
       <c r="M229" t="n">
         <v>0</v>
       </c>
       <c r="N229" t="n">
-        <v>-132.95</v>
+        <v>-74.92</v>
       </c>
       <c r="O229" t="n">
         <v>0</v>
@@ -20164,16 +20164,16 @@
         <v>0</v>
       </c>
       <c r="R229" t="n">
-        <v>-67.75</v>
+        <v>0</v>
       </c>
       <c r="S229" t="n">
         <v>0</v>
       </c>
       <c r="T229" t="n">
-        <v>-179.34</v>
+        <v>-59.67</v>
       </c>
       <c r="U229" t="n">
-        <v>-177.9</v>
+        <v>-58.23</v>
       </c>
       <c r="V229" t="n">
         <v>0</v>
@@ -20185,7 +20185,7 @@
         <v>0</v>
       </c>
       <c r="Y229" t="n">
-        <v>-42.7</v>
+        <v>0</v>
       </c>
       <c r="Z229" t="n">
         <v>0</v>
@@ -20208,31 +20208,31 @@
         <v>0</v>
       </c>
       <c r="F230" t="n">
-        <v>-243.65</v>
+        <v>-195.99</v>
       </c>
       <c r="G230" t="n">
-        <v>-28.3</v>
+        <v>0</v>
       </c>
       <c r="H230" t="n">
-        <v>-7.37</v>
+        <v>39.23</v>
       </c>
       <c r="I230" t="n">
-        <v>-28.41</v>
+        <v>0</v>
       </c>
       <c r="J230" t="n">
-        <v>-112.61</v>
+        <v>-49.5</v>
       </c>
       <c r="K230" t="n">
         <v>0</v>
       </c>
       <c r="L230" t="n">
-        <v>-260.42</v>
+        <v>-212.69</v>
       </c>
       <c r="M230" t="n">
         <v>0</v>
       </c>
       <c r="N230" t="n">
-        <v>-160.23</v>
+        <v>-73.9</v>
       </c>
       <c r="O230" t="n">
         <v>0</v>
@@ -20244,19 +20244,19 @@
         <v>0</v>
       </c>
       <c r="R230" t="n">
-        <v>-117.24</v>
+        <v>-65.32</v>
       </c>
       <c r="S230" t="n">
         <v>0</v>
       </c>
       <c r="T230" t="n">
-        <v>-213.72</v>
+        <v>-111.86</v>
       </c>
       <c r="U230" t="n">
-        <v>-208.72</v>
+        <v>-106.95</v>
       </c>
       <c r="V230" t="n">
-        <v>-32.19</v>
+        <v>0</v>
       </c>
       <c r="W230" t="n">
         <v>0</v>
@@ -20265,7 +20265,7 @@
         <v>0</v>
       </c>
       <c r="Y230" t="n">
-        <v>-90.62</v>
+        <v>0</v>
       </c>
       <c r="Z230" t="n">
         <v>0</v>
@@ -20312,7 +20312,7 @@
         <v>0</v>
       </c>
       <c r="N231" t="n">
-        <v>-275.31</v>
+        <v>0</v>
       </c>
       <c r="O231" t="n">
         <v>0</v>
@@ -20546,13 +20546,13 @@
         <v>0</v>
       </c>
       <c r="L234" t="n">
-        <v>-112.32</v>
+        <v>0</v>
       </c>
       <c r="M234" t="n">
         <v>0</v>
       </c>
       <c r="N234" t="n">
-        <v>-52.66</v>
+        <v>0</v>
       </c>
       <c r="O234" t="n">
         <v>0</v>
@@ -20626,13 +20626,13 @@
         <v>0</v>
       </c>
       <c r="L235" t="n">
-        <v>-168.6</v>
+        <v>-32.36</v>
       </c>
       <c r="M235" t="n">
         <v>0</v>
       </c>
       <c r="N235" t="n">
-        <v>-67.54</v>
+        <v>0</v>
       </c>
       <c r="O235" t="n">
         <v>0</v>
@@ -20786,13 +20786,13 @@
         <v>0</v>
       </c>
       <c r="L237" t="n">
-        <v>-194.57</v>
+        <v>-90.68</v>
       </c>
       <c r="M237" t="n">
         <v>0</v>
       </c>
       <c r="N237" t="n">
-        <v>-30.05</v>
+        <v>0</v>
       </c>
       <c r="O237" t="n">
         <v>0</v>
@@ -20872,7 +20872,7 @@
         <v>0</v>
       </c>
       <c r="N238" t="n">
-        <v>-196.92</v>
+        <v>0</v>
       </c>
       <c r="O238" t="n">
         <v>0</v>
@@ -20931,13 +20931,13 @@
         <v>0</v>
       </c>
       <c r="G239" t="n">
-        <v>-64.26</v>
+        <v>99.23</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
       </c>
       <c r="I239" t="n">
-        <v>-131.83</v>
+        <v>-89.55</v>
       </c>
       <c r="J239" t="n">
         <v>0</v>
@@ -20952,7 +20952,7 @@
         <v>0</v>
       </c>
       <c r="N239" t="n">
-        <v>-301.33</v>
+        <v>-223.41</v>
       </c>
       <c r="O239" t="n">
         <v>0</v>
@@ -21011,13 +21011,13 @@
         <v>0</v>
       </c>
       <c r="G240" t="n">
-        <v>-39.71</v>
+        <v>0</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
       </c>
       <c r="I240" t="n">
-        <v>-42.9</v>
+        <v>0</v>
       </c>
       <c r="J240" t="n">
         <v>0</v>
@@ -21032,7 +21032,7 @@
         <v>0</v>
       </c>
       <c r="N240" t="n">
-        <v>-265.89</v>
+        <v>-189.09</v>
       </c>
       <c r="O240" t="n">
         <v>0</v>
@@ -21091,13 +21091,13 @@
         <v>0</v>
       </c>
       <c r="G241" t="n">
-        <v>16.63</v>
+        <v>148.96</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
       </c>
       <c r="I241" t="n">
-        <v>-168.52</v>
+        <v>-68.86</v>
       </c>
       <c r="J241" t="n">
         <v>0</v>
@@ -21112,7 +21112,7 @@
         <v>0</v>
       </c>
       <c r="N241" t="n">
-        <v>14.87</v>
+        <v>20.19</v>
       </c>
       <c r="O241" t="n">
         <v>0</v>
@@ -21124,7 +21124,7 @@
         <v>0</v>
       </c>
       <c r="R241" t="n">
-        <v>-245.61</v>
+        <v>-149.75</v>
       </c>
       <c r="S241" t="n">
         <v>0</v>
@@ -21168,31 +21168,31 @@
         <v>0</v>
       </c>
       <c r="F242" t="n">
-        <v>848.9</v>
+        <v>426.53</v>
       </c>
       <c r="G242" t="n">
-        <v>-45.52</v>
+        <v>105.05</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
       </c>
       <c r="I242" t="n">
-        <v>-173.64</v>
+        <v>-62.63</v>
       </c>
       <c r="J242" t="n">
-        <v>-168.91</v>
+        <v>-77.61</v>
       </c>
       <c r="K242" t="n">
         <v>0</v>
       </c>
       <c r="L242" t="n">
-        <v>1276.68</v>
+        <v>737.2</v>
       </c>
       <c r="M242" t="n">
         <v>0</v>
       </c>
       <c r="N242" t="n">
-        <v>-53.16</v>
+        <v>26.88</v>
       </c>
       <c r="O242" t="n">
         <v>0</v>
@@ -21204,7 +21204,7 @@
         <v>0</v>
       </c>
       <c r="R242" t="n">
-        <v>-275.32</v>
+        <v>-236.19</v>
       </c>
       <c r="S242" t="n">
         <v>0</v>
@@ -21213,19 +21213,19 @@
         <v>0</v>
       </c>
       <c r="U242" t="n">
-        <v>440.37</v>
+        <v>393.36</v>
       </c>
       <c r="V242" t="n">
-        <v>4.75</v>
+        <v>146.13</v>
       </c>
       <c r="W242" t="n">
-        <v>-247.88</v>
+        <v>-148.31</v>
       </c>
       <c r="X242" t="n">
         <v>0</v>
       </c>
       <c r="Y242" t="n">
-        <v>32.67</v>
+        <v>266.05</v>
       </c>
       <c r="Z242" t="n">
         <v>0</v>
@@ -21251,13 +21251,13 @@
         <v>0</v>
       </c>
       <c r="G243" t="n">
-        <v>-68.01</v>
+        <v>20.19</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
       </c>
       <c r="I243" t="n">
-        <v>-95.21</v>
+        <v>-92.59</v>
       </c>
       <c r="J243" t="n">
         <v>0</v>
@@ -21272,7 +21272,7 @@
         <v>0</v>
       </c>
       <c r="N243" t="n">
-        <v>-307.87</v>
+        <v>-238.51</v>
       </c>
       <c r="O243" t="n">
         <v>0</v>
@@ -21331,13 +21331,13 @@
         <v>0</v>
       </c>
       <c r="G244" t="n">
-        <v>3.46</v>
+        <v>118.34</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
       </c>
       <c r="I244" t="n">
-        <v>-111.99</v>
+        <v>-59.11</v>
       </c>
       <c r="J244" t="n">
         <v>0</v>
@@ -21352,7 +21352,7 @@
         <v>0</v>
       </c>
       <c r="N244" t="n">
-        <v>-89.65</v>
+        <v>-41.1</v>
       </c>
       <c r="O244" t="n">
         <v>0</v>
@@ -21364,7 +21364,7 @@
         <v>0</v>
       </c>
       <c r="R244" t="n">
-        <v>-257.55</v>
+        <v>-162.5</v>
       </c>
       <c r="S244" t="n">
         <v>0</v>
@@ -21411,13 +21411,13 @@
         <v>0</v>
       </c>
       <c r="G245" t="n">
-        <v>-62.18</v>
+        <v>18.63</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
       </c>
       <c r="I245" t="n">
-        <v>-75.2</v>
+        <v>-37.23</v>
       </c>
       <c r="J245" t="n">
         <v>0</v>
@@ -21432,7 +21432,7 @@
         <v>0</v>
       </c>
       <c r="N245" t="n">
-        <v>-261.1</v>
+        <v>-178.84</v>
       </c>
       <c r="O245" t="n">
         <v>0</v>
@@ -21444,7 +21444,7 @@
         <v>0</v>
       </c>
       <c r="R245" t="n">
-        <v>-227.46</v>
+        <v>-106.89</v>
       </c>
       <c r="S245" t="n">
         <v>0</v>
@@ -21491,13 +21491,13 @@
         <v>0</v>
       </c>
       <c r="G246" t="n">
-        <v>-53.49</v>
+        <v>0</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
       </c>
       <c r="I246" t="n">
-        <v>-68.16</v>
+        <v>0</v>
       </c>
       <c r="J246" t="n">
         <v>0</v>
@@ -21512,7 +21512,7 @@
         <v>0</v>
       </c>
       <c r="N246" t="n">
-        <v>-283.5</v>
+        <v>-217.93</v>
       </c>
       <c r="O246" t="n">
         <v>0</v>
@@ -21592,7 +21592,7 @@
         <v>0</v>
       </c>
       <c r="N247" t="n">
-        <v>-242.57</v>
+        <v>-125.63</v>
       </c>
       <c r="O247" t="n">
         <v>0</v>
@@ -21651,13 +21651,13 @@
         <v>0</v>
       </c>
       <c r="G248" t="n">
-        <v>-52.35</v>
+        <v>39.64</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
       </c>
       <c r="I248" t="n">
-        <v>-97.87</v>
+        <v>-90.44</v>
       </c>
       <c r="J248" t="n">
         <v>0</v>
@@ -21672,7 +21672,7 @@
         <v>0</v>
       </c>
       <c r="N248" t="n">
-        <v>-218.36</v>
+        <v>-154.61</v>
       </c>
       <c r="O248" t="n">
         <v>0</v>
@@ -21731,13 +21731,13 @@
         <v>0</v>
       </c>
       <c r="G249" t="n">
-        <v>-96.88</v>
+        <v>14.07</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
       </c>
       <c r="I249" t="n">
-        <v>-132.64</v>
+        <v>-54.53</v>
       </c>
       <c r="J249" t="n">
         <v>0</v>
@@ -21752,7 +21752,7 @@
         <v>0</v>
       </c>
       <c r="N249" t="n">
-        <v>-285.86</v>
+        <v>-200.9</v>
       </c>
       <c r="O249" t="n">
         <v>0</v>
@@ -21764,7 +21764,7 @@
         <v>0</v>
       </c>
       <c r="R249" t="n">
-        <v>-277.53</v>
+        <v>-169.37</v>
       </c>
       <c r="S249" t="n">
         <v>0</v>
@@ -21811,16 +21811,16 @@
         <v>0</v>
       </c>
       <c r="G250" t="n">
-        <v>-65.43</v>
+        <v>0.25</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
       </c>
       <c r="I250" t="n">
-        <v>-76.38</v>
+        <v>-65.15</v>
       </c>
       <c r="J250" t="n">
-        <v>-113.64</v>
+        <v>0</v>
       </c>
       <c r="K250" t="n">
         <v>0</v>
@@ -21832,7 +21832,7 @@
         <v>0</v>
       </c>
       <c r="N250" t="n">
-        <v>-318.92</v>
+        <v>-215.94</v>
       </c>
       <c r="O250" t="n">
         <v>0</v>
@@ -21844,7 +21844,7 @@
         <v>0</v>
       </c>
       <c r="R250" t="n">
-        <v>-216.27</v>
+        <v>-127.73</v>
       </c>
       <c r="S250" t="n">
         <v>0</v>
@@ -21891,13 +21891,13 @@
         <v>0</v>
       </c>
       <c r="G251" t="n">
-        <v>-111.82</v>
+        <v>27</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
       </c>
       <c r="I251" t="n">
-        <v>-164.41</v>
+        <v>-72.08</v>
       </c>
       <c r="J251" t="n">
         <v>0</v>
@@ -21912,7 +21912,7 @@
         <v>0</v>
       </c>
       <c r="N251" t="n">
-        <v>-287.13</v>
+        <v>-202.97</v>
       </c>
       <c r="O251" t="n">
         <v>0</v>
@@ -21924,7 +21924,7 @@
         <v>0</v>
       </c>
       <c r="R251" t="n">
-        <v>-318.9</v>
+        <v>-198.89</v>
       </c>
       <c r="S251" t="n">
         <v>0</v>
@@ -21971,13 +21971,13 @@
         <v>0</v>
       </c>
       <c r="G252" t="n">
-        <v>-60.03</v>
+        <v>0</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
       </c>
       <c r="I252" t="n">
-        <v>-74.89</v>
+        <v>0</v>
       </c>
       <c r="J252" t="n">
         <v>0</v>
@@ -21992,7 +21992,7 @@
         <v>0</v>
       </c>
       <c r="N252" t="n">
-        <v>-241.78</v>
+        <v>-156.69</v>
       </c>
       <c r="O252" t="n">
         <v>0</v>
@@ -22048,31 +22048,31 @@
         <v>0</v>
       </c>
       <c r="F253" t="n">
-        <v>507.96</v>
+        <v>459.68</v>
       </c>
       <c r="G253" t="n">
-        <v>-119.93</v>
+        <v>19.84</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
       </c>
       <c r="I253" t="n">
-        <v>-156.53</v>
+        <v>-64.33</v>
       </c>
       <c r="J253" t="n">
-        <v>-266.92</v>
+        <v>-114.3</v>
       </c>
       <c r="K253" t="n">
         <v>0</v>
       </c>
       <c r="L253" t="n">
-        <v>779.61</v>
+        <v>704.98</v>
       </c>
       <c r="M253" t="n">
         <v>0</v>
       </c>
       <c r="N253" t="n">
-        <v>-265.25</v>
+        <v>-167.07</v>
       </c>
       <c r="O253" t="n">
         <v>0</v>
@@ -22084,7 +22084,7 @@
         <v>0</v>
       </c>
       <c r="R253" t="n">
-        <v>-312.64</v>
+        <v>-172.95</v>
       </c>
       <c r="S253" t="n">
         <v>0</v>
@@ -22093,19 +22093,19 @@
         <v>0</v>
       </c>
       <c r="U253" t="n">
-        <v>179.13</v>
+        <v>252.81</v>
       </c>
       <c r="V253" t="n">
-        <v>-132.73</v>
+        <v>5.5</v>
       </c>
       <c r="W253" t="n">
-        <v>-270.31</v>
+        <v>-173.55</v>
       </c>
       <c r="X253" t="n">
         <v>0</v>
       </c>
       <c r="Y253" t="n">
-        <v>-136.93</v>
+        <v>15.7</v>
       </c>
       <c r="Z253" t="n">
         <v>0</v>
@@ -22128,43 +22128,43 @@
         <v>0</v>
       </c>
       <c r="F254" t="n">
-        <v>1399.21</v>
+        <v>931.1</v>
       </c>
       <c r="G254" t="n">
-        <v>-180.64</v>
+        <v>3.38</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
       </c>
       <c r="I254" t="n">
-        <v>-227.02</v>
+        <v>-66.16</v>
       </c>
       <c r="J254" t="n">
-        <v>-340.19</v>
+        <v>-166.45</v>
       </c>
       <c r="K254" t="n">
         <v>0</v>
       </c>
       <c r="L254" t="n">
-        <v>2199.08</v>
+        <v>1533.93</v>
       </c>
       <c r="M254" t="n">
         <v>0</v>
       </c>
       <c r="N254" t="n">
-        <v>-357.7</v>
+        <v>-252.85</v>
       </c>
       <c r="O254" t="n">
         <v>0</v>
       </c>
       <c r="P254" t="n">
-        <v>-431.96</v>
+        <v>-322.24</v>
       </c>
       <c r="Q254" t="n">
         <v>0</v>
       </c>
       <c r="R254" t="n">
-        <v>-420.87</v>
+        <v>-247.12</v>
       </c>
       <c r="S254" t="n">
         <v>0</v>
@@ -22173,19 +22173,19 @@
         <v>0</v>
       </c>
       <c r="U254" t="n">
-        <v>111.54</v>
+        <v>111.96</v>
       </c>
       <c r="V254" t="n">
-        <v>-110.58</v>
+        <v>94.12</v>
       </c>
       <c r="W254" t="n">
-        <v>-307.54</v>
+        <v>-197.82</v>
       </c>
       <c r="X254" t="n">
         <v>0</v>
       </c>
       <c r="Y254" t="n">
-        <v>-59.4</v>
+        <v>114.35</v>
       </c>
       <c r="Z254" t="n">
         <v>0</v>
@@ -22208,43 +22208,43 @@
         <v>0</v>
       </c>
       <c r="F255" t="n">
-        <v>1398.84</v>
+        <v>1212.88</v>
       </c>
       <c r="G255" t="n">
-        <v>-181.38</v>
+        <v>5.18</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
       </c>
       <c r="I255" t="n">
-        <v>-219.63</v>
+        <v>-54.9</v>
       </c>
       <c r="J255" t="n">
-        <v>-300.16</v>
+        <v>-145.73</v>
       </c>
       <c r="K255" t="n">
         <v>0</v>
       </c>
       <c r="L255" t="n">
-        <v>1735.59</v>
+        <v>1518.26</v>
       </c>
       <c r="M255" t="n">
         <v>0</v>
       </c>
       <c r="N255" t="n">
-        <v>-340.45</v>
+        <v>-238.82</v>
       </c>
       <c r="O255" t="n">
         <v>0</v>
       </c>
       <c r="P255" t="n">
-        <v>-380.81</v>
+        <v>-277.23</v>
       </c>
       <c r="Q255" t="n">
         <v>0</v>
       </c>
       <c r="R255" t="n">
-        <v>-379.92</v>
+        <v>-225.49</v>
       </c>
       <c r="S255" t="n">
         <v>0</v>
@@ -22253,19 +22253,19 @@
         <v>0</v>
       </c>
       <c r="U255" t="n">
-        <v>454.7</v>
+        <v>499.39</v>
       </c>
       <c r="V255" t="n">
-        <v>-138.62</v>
+        <v>63.11</v>
       </c>
       <c r="W255" t="n">
-        <v>-258.66</v>
+        <v>-160.82</v>
       </c>
       <c r="X255" t="n">
         <v>0</v>
       </c>
       <c r="Y255" t="n">
-        <v>-45.48</v>
+        <v>108.95</v>
       </c>
       <c r="Z255" t="n">
         <v>0</v>
@@ -22291,16 +22291,16 @@
         <v>0</v>
       </c>
       <c r="G256" t="n">
-        <v>-45.51</v>
+        <v>0</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
       </c>
       <c r="I256" t="n">
-        <v>-47.43</v>
+        <v>0</v>
       </c>
       <c r="J256" t="n">
-        <v>-146.14</v>
+        <v>-93.89</v>
       </c>
       <c r="K256" t="n">
         <v>0</v>
@@ -22312,7 +22312,7 @@
         <v>0</v>
       </c>
       <c r="N256" t="n">
-        <v>-254.96</v>
+        <v>-152.52</v>
       </c>
       <c r="O256" t="n">
         <v>0</v>
@@ -22324,7 +22324,7 @@
         <v>0</v>
       </c>
       <c r="R256" t="n">
-        <v>-151.72</v>
+        <v>-103.86</v>
       </c>
       <c r="S256" t="n">
         <v>0</v>
@@ -22371,13 +22371,13 @@
         <v>0</v>
       </c>
       <c r="G257" t="n">
-        <v>-52.84</v>
+        <v>0</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
       </c>
       <c r="I257" t="n">
-        <v>-55.57</v>
+        <v>0</v>
       </c>
       <c r="J257" t="n">
         <v>0</v>
@@ -22392,7 +22392,7 @@
         <v>0</v>
       </c>
       <c r="N257" t="n">
-        <v>-246.2</v>
+        <v>-128.58</v>
       </c>
       <c r="O257" t="n">
         <v>0</v>
@@ -22448,31 +22448,31 @@
         <v>0</v>
       </c>
       <c r="F258" t="n">
-        <v>1892.59</v>
+        <v>1500.29</v>
       </c>
       <c r="G258" t="n">
-        <v>-152.41</v>
+        <v>12.46</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
       </c>
       <c r="I258" t="n">
-        <v>-184.6</v>
+        <v>-57.16</v>
       </c>
       <c r="J258" t="n">
-        <v>-312.94</v>
+        <v>-163.26</v>
       </c>
       <c r="K258" t="n">
         <v>0</v>
       </c>
       <c r="L258" t="n">
-        <v>2200.4</v>
+        <v>1756.96</v>
       </c>
       <c r="M258" t="n">
         <v>0</v>
       </c>
       <c r="N258" t="n">
-        <v>-316.86</v>
+        <v>-201.42</v>
       </c>
       <c r="O258" t="n">
         <v>0</v>
@@ -22484,7 +22484,7 @@
         <v>0</v>
       </c>
       <c r="R258" t="n">
-        <v>-401.71</v>
+        <v>-252.03</v>
       </c>
       <c r="S258" t="n">
         <v>0</v>
@@ -22493,19 +22493,19 @@
         <v>0</v>
       </c>
       <c r="U258" t="n">
-        <v>843.67</v>
+        <v>824.64</v>
       </c>
       <c r="V258" t="n">
-        <v>-134.04</v>
+        <v>74.78</v>
       </c>
       <c r="W258" t="n">
-        <v>-215.45</v>
+        <v>-123.34</v>
       </c>
       <c r="X258" t="n">
         <v>0</v>
       </c>
       <c r="Y258" t="n">
-        <v>3.48</v>
+        <v>153.15</v>
       </c>
       <c r="Z258" t="n">
         <v>0</v>
@@ -22531,13 +22531,13 @@
         <v>0</v>
       </c>
       <c r="G259" t="n">
-        <v>-58.61</v>
+        <v>0</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
       </c>
       <c r="I259" t="n">
-        <v>-65.24</v>
+        <v>0</v>
       </c>
       <c r="J259" t="n">
         <v>0</v>
@@ -22552,7 +22552,7 @@
         <v>0</v>
       </c>
       <c r="N259" t="n">
-        <v>-288.22</v>
+        <v>-178.54</v>
       </c>
       <c r="O259" t="n">
         <v>0</v>
@@ -22611,13 +22611,13 @@
         <v>0</v>
       </c>
       <c r="G260" t="n">
-        <v>-62.23</v>
+        <v>0</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
       </c>
       <c r="I260" t="n">
-        <v>-72.65</v>
+        <v>0</v>
       </c>
       <c r="J260" t="n">
         <v>0</v>
@@ -22632,7 +22632,7 @@
         <v>0</v>
       </c>
       <c r="N260" t="n">
-        <v>-265.3</v>
+        <v>-149.94</v>
       </c>
       <c r="O260" t="n">
         <v>0</v>
@@ -22644,7 +22644,7 @@
         <v>0</v>
       </c>
       <c r="R260" t="n">
-        <v>-305.32</v>
+        <v>-167.38</v>
       </c>
       <c r="S260" t="n">
         <v>0</v>
@@ -22688,31 +22688,31 @@
         <v>0</v>
       </c>
       <c r="F261" t="n">
-        <v>1151.01</v>
+        <v>1156.39</v>
       </c>
       <c r="G261" t="n">
-        <v>-154.49</v>
+        <v>0</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
       </c>
       <c r="I261" t="n">
-        <v>-168.05</v>
+        <v>0</v>
       </c>
       <c r="J261" t="n">
-        <v>-284.65</v>
+        <v>-108.68</v>
       </c>
       <c r="K261" t="n">
         <v>0</v>
       </c>
       <c r="L261" t="n">
-        <v>1322.36</v>
+        <v>1323.84</v>
       </c>
       <c r="M261" t="n">
         <v>0</v>
       </c>
       <c r="N261" t="n">
-        <v>-298.96</v>
+        <v>-185.7</v>
       </c>
       <c r="O261" t="n">
         <v>0</v>
@@ -22724,7 +22724,7 @@
         <v>0</v>
       </c>
       <c r="R261" t="n">
-        <v>-380.98</v>
+        <v>-205.01</v>
       </c>
       <c r="S261" t="n">
         <v>0</v>
@@ -22733,19 +22733,19 @@
         <v>0</v>
       </c>
       <c r="U261" t="n">
-        <v>272.04</v>
+        <v>376.76</v>
       </c>
       <c r="V261" t="n">
-        <v>-163.83</v>
+        <v>0</v>
       </c>
       <c r="W261" t="n">
-        <v>-297.87</v>
+        <v>-187.83</v>
       </c>
       <c r="X261" t="n">
         <v>0</v>
       </c>
       <c r="Y261" t="n">
-        <v>-50.49</v>
+        <v>125.47</v>
       </c>
       <c r="Z261" t="n">
         <v>0</v>
